--- a/manutd.xlsx
+++ b/manutd.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620C90D-9F24-4D6C-8114-5F8FB96F7E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0705862-7C14-4612-B9B3-5F5871883B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="585" windowWidth="18615" windowHeight="14430" xr2:uid="{5E00D41A-C930-4289-B78F-960CCDF96214}"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="19320" windowHeight="18810" activeTab="1" xr2:uid="{5E00D41A-C930-4289-B78F-960CCDF96214}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
-    <sheet name="financials" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="amorim squad" sheetId="4" r:id="rId2"/>
+    <sheet name="summer25 transfers" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="financials" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="139">
   <si>
     <t>13/14</t>
   </si>
@@ -401,6 +403,60 @@
   </si>
   <si>
     <t>Wheatly</t>
+  </si>
+  <si>
+    <t>Ruben Amorim</t>
+  </si>
+  <si>
+    <t>Formation:</t>
+  </si>
+  <si>
+    <t>3-4-3</t>
+  </si>
+  <si>
+    <t>Current Record:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of: </t>
+  </si>
+  <si>
+    <t>13-5-10</t>
+  </si>
+  <si>
+    <t>Appointed:</t>
+  </si>
+  <si>
+    <t>Nov-11-2024</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>RWB</t>
+  </si>
+  <si>
+    <t>LWB</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>Rasmus</t>
+  </si>
+  <si>
+    <t>Chido</t>
+  </si>
+  <si>
+    <t>Dorgu</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Ugarte</t>
   </si>
 </sst>
 </file>
@@ -411,7 +467,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +478,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -484,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -499,6 +563,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65ACE49-D0D5-4EEE-826F-D3BEEBB0FB45}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -1225,6 +1299,776 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430E7901-1ADC-45FF-A982-7AAE35183C9F}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="15">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A3D64F-33C5-452F-9E0A-70A8899C2B82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C305AF0A-149E-41BA-86BF-2960BFD23107}">
+  <dimension ref="C5:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>69</v>
+      </c>
+      <c r="H7">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>66</v>
+      </c>
+      <c r="J7">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>74</v>
+      </c>
+      <c r="L7">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>75</v>
+      </c>
+      <c r="N7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF60D48-4AE4-4613-8644-ACC7019FC1AC}">
   <dimension ref="B2:I25"/>
   <sheetViews>
@@ -1657,458 +2501,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C305AF0A-149E-41BA-86BF-2960BFD23107}">
-  <dimension ref="C5:N31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>64</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7">
-        <v>66</v>
-      </c>
-      <c r="G7">
-        <v>69</v>
-      </c>
-      <c r="H7">
-        <v>81</v>
-      </c>
-      <c r="I7">
-        <v>66</v>
-      </c>
-      <c r="J7">
-        <v>66</v>
-      </c>
-      <c r="K7">
-        <v>74</v>
-      </c>
-      <c r="L7">
-        <v>58</v>
-      </c>
-      <c r="M7">
-        <v>75</v>
-      </c>
-      <c r="N7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="L24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="L25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="L26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="M28" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="M29" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="M30" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="M31" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>